--- a/doc/손실_탈출_계산.xlsx
+++ b/doc/손실_탈출_계산.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\python\web_upbit_auto_trading\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D43D2E04-D2BC-494F-9A75-2F5B41600E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B99893-9959-4655-93AC-556B53DAE692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19155" yWindow="495" windowWidth="18660" windowHeight="11295" xr2:uid="{2B460CE7-C375-42F3-A9E8-FBB3015A934C}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{2B460CE7-C375-42F3-A9E8-FBB3015A934C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>현단가</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>XRP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UXLINK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOGE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +121,7 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -191,14 +215,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
@@ -207,10 +228,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -555,63 +576,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E6B5DC-47ED-443A-AA9D-522834F4A737}">
-  <dimension ref="A2:K4"/>
+  <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -621,8 +642,8 @@
       <c r="C3" s="1">
         <v>1111.5</v>
       </c>
-      <c r="D3" s="5">
-        <f>B3*C3</f>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D9" si="0">B3*C3</f>
         <v>439042.5</v>
       </c>
       <c r="E3" s="1">
@@ -631,28 +652,28 @@
       <c r="F3" s="1">
         <v>1106</v>
       </c>
-      <c r="G3" s="6">
-        <f>E3*F3</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G9" si="1">E3*F3</f>
         <v>331800</v>
       </c>
-      <c r="H3" s="3">
-        <f>F3/C3-100%</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" si="2">F3/C3-100%</f>
         <v>-4.9482681061628897E-3</v>
       </c>
-      <c r="I3" s="4">
-        <f>B3+E3</f>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I9" si="3">B3+E3</f>
         <v>695</v>
       </c>
-      <c r="J3" s="4">
-        <f>D3+G3</f>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J9" si="4">D3+G3</f>
         <v>770842.5</v>
       </c>
-      <c r="K3" s="2">
-        <f>J3/I3</f>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="5">J3/I3</f>
         <v>1109.1258992805756</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -662,35 +683,243 @@
       <c r="C4" s="1">
         <v>4317.7700000000004</v>
       </c>
-      <c r="D4" s="5">
-        <f>B4*C4</f>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
         <v>499999.92488500004</v>
       </c>
       <c r="E4" s="1">
+        <v>141</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4286</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>604326</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.3579648753872018E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="3"/>
+        <v>256.8005</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="4"/>
+        <v>1104325.9248850001</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="5"/>
+        <v>4300.3262255525206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>183.48</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1471.53</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>269996.32439999998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>700</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1217</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>851900</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.17296963024878864</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>883.48</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="4"/>
+        <v>1121896.3244</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="5"/>
+        <v>1269.8604658849097</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7">
+        <v>110.76</v>
+      </c>
+      <c r="C6" s="7">
+        <v>541.66999999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>59995.369200000001</v>
+      </c>
+      <c r="E6" s="1">
         <v>200</v>
       </c>
-      <c r="F4" s="1">
-        <v>4274</v>
-      </c>
-      <c r="G4" s="6">
-        <f>E4*F4</f>
-        <v>854800</v>
-      </c>
-      <c r="H4" s="3">
-        <f>F4/C4-100%</f>
-        <v>-1.0137177292908195E-2</v>
-      </c>
-      <c r="I4" s="4">
-        <f>B4+E4</f>
-        <v>315.8005</v>
-      </c>
-      <c r="J4" s="4">
-        <f>D4+G4</f>
-        <v>1354799.9248850001</v>
-      </c>
-      <c r="K4" s="2">
-        <f>J4/I4</f>
-        <v>4290.049967891121</v>
+      <c r="F6" s="1">
+        <v>505.5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>101100</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.6774973692469541E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>310.76</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="4"/>
+        <v>161095.36920000002</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>518.39158578967704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6.18</v>
+      </c>
+      <c r="C7" s="7">
+        <v>14565.48</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>90014.666399999987</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>13780</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>413400</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.3927505307068468E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>36.18</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="4"/>
+        <v>503414.66639999999</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>13914.169883913764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5.01</v>
+      </c>
+      <c r="C8" s="7">
+        <v>258079.61</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1292978.8461</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>253150</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>759450</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.91011215492769E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
+        <v>8.01</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="4"/>
+        <v>2052428.8461</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>256233.3141198502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2118.33</v>
+      </c>
+      <c r="C9" s="7">
+        <v>332.17</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>703645.67610000004</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>323</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>646000</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.7606346148056793E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
+        <v>4118.33</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="4"/>
+        <v>1349645.6761</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>327.71673860521133</v>
       </c>
     </row>
   </sheetData>
